--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johsl155\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE8B9818-67C8-4061-BCC5-C7D8103ECA9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3345EB0-FF6A-404D-80A4-F7AB7E064AF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="11470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="283">
   <si>
     <t>Category</t>
   </si>
@@ -577,309 +577,6 @@
     <t>What’s a way I can bring more intentionality to my relationship?</t>
   </si>
   <si>
-    <t>Business Opportunity</t>
-  </si>
-  <si>
-    <t>What niche markets are currently underserved in my industry?</t>
-  </si>
-  <si>
-    <t>What are the top 3 pain points customers express in online reviews?</t>
-  </si>
-  <si>
-    <t>What keywords are trending in my industry on search engines?</t>
-  </si>
-  <si>
-    <t>What are competitors doing that customers dislike?</t>
-  </si>
-  <si>
-    <t>What are the most common complaints in industry forums?</t>
-  </si>
-  <si>
-    <t>What products are frequently out of stock in my niche?</t>
-  </si>
-  <si>
-    <t>What are the most searched questions in my field?</t>
-  </si>
-  <si>
-    <t>What are the gaps in service offerings in my local area?</t>
-  </si>
-  <si>
-    <t>What are the most downloaded free tools in my industry?</t>
-  </si>
-  <si>
-    <t>What are the most shared articles in my niche on social media?</t>
-  </si>
-  <si>
-    <t>What daily frustrations do people face that I could solve?</t>
-  </si>
-  <si>
-    <t>What tasks do people wish were easier or faster?</t>
-  </si>
-  <si>
-    <t>What processes are outdated and ripe for disruption?</t>
-  </si>
-  <si>
-    <t>What do people complain about in my workplace or community?</t>
-  </si>
-  <si>
-    <t>What services do people wish existed but don’t?</t>
-  </si>
-  <si>
-    <t>What are common inefficiencies in small businesses?</t>
-  </si>
-  <si>
-    <t>What do people often DIY that could be a service?</t>
-  </si>
-  <si>
-    <t>What are common bottlenecks in digital workflows?</t>
-  </si>
-  <si>
-    <t>What are recurring issues in customer support tickets?</t>
-  </si>
-  <si>
-    <t>What are common pain points in remote work?</t>
-  </si>
-  <si>
-    <t>What do customers wish they had more of (time, money, energy)?</t>
-  </si>
-  <si>
-    <t>What are customers willing to pay extra for?</t>
-  </si>
-  <si>
-    <t>What do customers value most in a product or service?</t>
-  </si>
-  <si>
-    <t>What are the emotional drivers behind customer purchases?</t>
-  </si>
-  <si>
-    <t>What do customers want simplified in their lives?</t>
-  </si>
-  <si>
-    <t>What do customers want to learn but don’t know how?</t>
-  </si>
-  <si>
-    <t>What do customers want to avoid or eliminate?</t>
-  </si>
-  <si>
-    <t>What do customers want to feel more of (confidence, safety, joy)?</t>
-  </si>
-  <si>
-    <t>What do customers want to automate?</t>
-  </si>
-  <si>
-    <t>What do customers want to personalize?</t>
-  </si>
-  <si>
-    <t>What existing product can I improve or simplify?</t>
-  </si>
-  <si>
-    <t>What service can I offer as a subscription?</t>
-  </si>
-  <si>
-    <t>What physical product can be turned into a digital one?</t>
-  </si>
-  <si>
-    <t>What can I combine from two industries to create something new?</t>
-  </si>
-  <si>
-    <t>What can I turn into a mobile app?</t>
-  </si>
-  <si>
-    <t>What can I gamify to increase engagement?</t>
-  </si>
-  <si>
-    <t>What can I offer as a DIY kit or template?</t>
-  </si>
-  <si>
-    <t>What can I license or white-label?</t>
-  </si>
-  <si>
-    <t>What can I turn into a marketplace?</t>
-  </si>
-  <si>
-    <t>What can I offer as a concierge or done-for-you service?</t>
-  </si>
-  <si>
-    <t>Who are 5 people I can interview about their business challenges?</t>
-  </si>
-  <si>
-    <t>What local events can I attend to meet potential collaborators?</t>
-  </si>
-  <si>
-    <t>What online communities can I join to learn about industry needs?</t>
-  </si>
-  <si>
-    <t>Who are influencers I can partner with for feedback?</t>
-  </si>
-  <si>
-    <t>What LinkedIn groups are active in my niche?</t>
-  </si>
-  <si>
-    <t>Who can I shadow or mentor with to learn about gaps in the market?</t>
-  </si>
-  <si>
-    <t>What podcasts can I pitch to share my ideas?</t>
-  </si>
-  <si>
-    <t>Who can I co-create a product or service with?</t>
-  </si>
-  <si>
-    <t>What Slack or Discord groups are relevant to my field?</t>
-  </si>
-  <si>
-    <t>Who can I ask for introductions to potential customers?</t>
-  </si>
-  <si>
-    <t>What emerging technologies are changing my industry?</t>
-  </si>
-  <si>
-    <t>What consumer behaviors are shifting post-pandemic?</t>
-  </si>
-  <si>
-    <t>What industries are growing fastest right now?</t>
-  </si>
-  <si>
-    <t>What are Gen Z and Millennials spending money on?</t>
-  </si>
-  <si>
-    <t>What are the most funded startups solving?</t>
-  </si>
-  <si>
-    <t>What’s trending on Kickstarter or Product Hunt?</t>
-  </si>
-  <si>
-    <t>What’s being automated that used to be manual?</t>
-  </si>
-  <si>
-    <t>What’s becoming more personalized in consumer products?</t>
-  </si>
-  <si>
-    <t>What’s being replaced by AI or machine learning?</t>
-  </si>
-  <si>
-    <t>What’s becoming more eco-friendly or sustainable?</t>
-  </si>
-  <si>
-    <t>What software tools are people struggling to use?</t>
-  </si>
-  <si>
-    <t>What integrations are missing between popular platforms?</t>
-  </si>
-  <si>
-    <t>What digital workflows are overly complex?</t>
-  </si>
-  <si>
-    <t>What tools are overpriced and ripe for disruption?</t>
-  </si>
-  <si>
-    <t>What tools are outdated and need a modern version?</t>
-  </si>
-  <si>
-    <t>What tools are missing mobile-friendly versions?</t>
-  </si>
-  <si>
-    <t>What tools could benefit from better UX design?</t>
-  </si>
-  <si>
-    <t>What tools could be simplified for non-tech users?</t>
-  </si>
-  <si>
-    <t>What tools could be bundled into one platform?</t>
-  </si>
-  <si>
-    <t>What tools could be offered as a freemium model?</t>
-  </si>
-  <si>
-    <t>What can I offer as a paid newsletter or content subscription?</t>
-  </si>
-  <si>
-    <t>What can I sell as a digital download?</t>
-  </si>
-  <si>
-    <t>What can I teach as a paid course or workshop?</t>
-  </si>
-  <si>
-    <t>What can I offer as a consulting or coaching service?</t>
-  </si>
-  <si>
-    <t>What can I rent or lease instead of sell?</t>
-  </si>
-  <si>
-    <t>What can I monetize through affiliate marketing?</t>
-  </si>
-  <si>
-    <t>What can I offer as a premium upgrade?</t>
-  </si>
-  <si>
-    <t>What can I license to other businesses?</t>
-  </si>
-  <si>
-    <t>What can I monetize through ads or sponsorships?</t>
-  </si>
-  <si>
-    <t>What can I sell as a bundle or package deal?</t>
-  </si>
-  <si>
-    <t>What can I offer as a one-time service vs. recurring?</t>
-  </si>
-  <si>
-    <t>What can I offer as a freemium model with upsells?</t>
-  </si>
-  <si>
-    <t>What can I offer as a marketplace connecting buyers and sellers?</t>
-  </si>
-  <si>
-    <t>What can I offer as a productized service?</t>
-  </si>
-  <si>
-    <t>What can I offer as a membership community?</t>
-  </si>
-  <si>
-    <t>What can I offer as a white-label solution?</t>
-  </si>
-  <si>
-    <t>What can I offer as a hybrid physical/digital product?</t>
-  </si>
-  <si>
-    <t>What can I offer as a pay-what-you-want model?</t>
-  </si>
-  <si>
-    <t>What can I offer as a B2B vs. B2C solution?</t>
-  </si>
-  <si>
-    <t>What can I offer as a licensing model?</t>
-  </si>
-  <si>
-    <t>What’s a simple landing page I can build to test interest?</t>
-  </si>
-  <si>
-    <t>What’s a free version I can offer to get feedback?</t>
-  </si>
-  <si>
-    <t>What’s a survey I can send to validate demand?</t>
-  </si>
-  <si>
-    <t>What’s a prototype I can build in a weekend?</t>
-  </si>
-  <si>
-    <t>What’s a pre-order campaign I can launch?</t>
-  </si>
-  <si>
-    <t>What’s a beta group I can invite to test my idea?</t>
-  </si>
-  <si>
-    <t>What’s a social media post I can use to gauge interest?</t>
-  </si>
-  <si>
-    <t>What’s a cold email I can send to potential customers?</t>
-  </si>
-  <si>
-    <t>What’s a free tool I can offer to build an email list?</t>
-  </si>
-  <si>
-    <t>What’s a way to test pricing without launching the full product?</t>
-  </si>
-  <si>
     <t>DR Thesis</t>
   </si>
   <si>
@@ -1139,6 +836,39 @@
   </si>
   <si>
     <t>What is my strategy for building a publication portfolio?</t>
+  </si>
+  <si>
+    <t>What is one thing you could do this week to learn more about ergonomic principles for coding workstations?</t>
+  </si>
+  <si>
+    <t>Design a daily habit for developers that improves posture and reduces RSI risk.</t>
+  </si>
+  <si>
+    <t>What is one pain point developers complain about on forums related to their physical comfort?</t>
+  </si>
+  <si>
+    <t>Explore one task a developer does repetitively—how could it be made more ergonomically friendly?</t>
+  </si>
+  <si>
+    <t>Think of one office item used by developers that could be redesigned for better ergonomics.</t>
+  </si>
+  <si>
+    <t>What is one software solution that could track or improve user posture?</t>
+  </si>
+  <si>
+    <t>Name one feature missing from existing standing desks for developers.</t>
+  </si>
+  <si>
+    <t>What is one ergonomic issue faced by remote developers that no one is solving yet?</t>
+  </si>
+  <si>
+    <t>What is one simple ergonomic improvement a programmer can make to their workspace today?</t>
+  </si>
+  <si>
+    <t>Identify one recurring discomfort developers experience and how it might be turned into a product.</t>
+  </si>
+  <si>
+    <t>Business</t>
   </si>
 </sst>
 </file>
@@ -1197,11 +927,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1543,10 +1274,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B368"/>
+  <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A283" sqref="A283:B368"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3703,802 +3434,786 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>185</v>
-      </c>
-      <c r="B269" t="s">
+        <v>282</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
-        <v>185</v>
-      </c>
-      <c r="B270" t="s">
+      <c r="A270" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>185</v>
-      </c>
-      <c r="B271" t="s">
+      <c r="A271" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
-        <v>185</v>
-      </c>
-      <c r="B272" t="s">
+      <c r="A272" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
-        <v>185</v>
-      </c>
-      <c r="B273" t="s">
+      <c r="A273" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
-        <v>185</v>
-      </c>
-      <c r="B274" t="s">
+      <c r="A274" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
-        <v>185</v>
-      </c>
-      <c r="B275" t="s">
+      <c r="A275" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
-        <v>185</v>
-      </c>
-      <c r="B276" t="s">
+      <c r="A276" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
-        <v>185</v>
-      </c>
-      <c r="B277" t="s">
+      <c r="A277" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
-        <v>185</v>
-      </c>
-      <c r="B278" t="s">
+      <c r="A278" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
-        <v>185</v>
-      </c>
-      <c r="B279" t="s">
-        <v>282</v>
+      <c r="A279" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
-        <v>185</v>
-      </c>
-      <c r="B280" t="s">
-        <v>283</v>
+      <c r="A280" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
-        <v>185</v>
-      </c>
-      <c r="B281" t="s">
-        <v>284</v>
+      <c r="A281" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
-        <v>185</v>
-      </c>
-      <c r="B282" t="s">
-        <v>285</v>
+      <c r="A282" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
-        <v>286</v>
-      </c>
-      <c r="B283" t="s">
-        <v>287</v>
+      <c r="A283" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
-        <v>286</v>
-      </c>
-      <c r="B284" t="s">
-        <v>288</v>
+      <c r="A284" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
-        <v>286</v>
-      </c>
-      <c r="B285" t="s">
-        <v>289</v>
+      <c r="A285" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
-        <v>286</v>
-      </c>
-      <c r="B286" t="s">
-        <v>290</v>
+      <c r="A286" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>286</v>
-      </c>
-      <c r="B287" t="s">
-        <v>291</v>
+      <c r="A287" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
-        <v>286</v>
-      </c>
-      <c r="B288" t="s">
-        <v>292</v>
+      <c r="A288" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>286</v>
-      </c>
-      <c r="B289" t="s">
-        <v>293</v>
+      <c r="A289" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
-        <v>286</v>
-      </c>
-      <c r="B290" t="s">
-        <v>294</v>
+      <c r="A290" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>286</v>
-      </c>
-      <c r="B291" t="s">
-        <v>295</v>
+      <c r="A291" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>286</v>
-      </c>
-      <c r="B292" t="s">
-        <v>296</v>
+      <c r="A292" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>286</v>
-      </c>
-      <c r="B293" t="s">
-        <v>297</v>
+      <c r="A293" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>286</v>
-      </c>
-      <c r="B294" t="s">
-        <v>298</v>
+      <c r="A294" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>286</v>
-      </c>
-      <c r="B295" t="s">
-        <v>299</v>
+      <c r="A295" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>286</v>
-      </c>
-      <c r="B296" t="s">
-        <v>300</v>
+      <c r="A296" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>286</v>
-      </c>
-      <c r="B297" t="s">
-        <v>301</v>
+      <c r="A297" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>286</v>
-      </c>
-      <c r="B298" t="s">
-        <v>302</v>
+      <c r="A298" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
-        <v>286</v>
-      </c>
-      <c r="B299" t="s">
-        <v>303</v>
+      <c r="A299" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>286</v>
-      </c>
-      <c r="B300" t="s">
-        <v>304</v>
+      <c r="A300" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>286</v>
-      </c>
-      <c r="B301" t="s">
-        <v>305</v>
+      <c r="A301" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
-        <v>286</v>
-      </c>
-      <c r="B302" t="s">
-        <v>306</v>
+      <c r="A302" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
-        <v>286</v>
-      </c>
-      <c r="B303" t="s">
-        <v>307</v>
+      <c r="A303" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
-        <v>286</v>
-      </c>
-      <c r="B304" t="s">
-        <v>308</v>
+      <c r="A304" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
-        <v>286</v>
-      </c>
-      <c r="B305" t="s">
-        <v>309</v>
+      <c r="A305" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A306" t="s">
-        <v>286</v>
-      </c>
-      <c r="B306" t="s">
-        <v>310</v>
+      <c r="A306" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" t="s">
-        <v>286</v>
-      </c>
-      <c r="B307" t="s">
-        <v>311</v>
+      <c r="A307" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A308" t="s">
-        <v>286</v>
-      </c>
-      <c r="B308" t="s">
-        <v>312</v>
+      <c r="A308" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A309" t="s">
-        <v>286</v>
-      </c>
-      <c r="B309" t="s">
-        <v>313</v>
+      <c r="A309" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A310" t="s">
-        <v>286</v>
-      </c>
-      <c r="B310" t="s">
-        <v>314</v>
+      <c r="A310" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A311" t="s">
-        <v>286</v>
-      </c>
-      <c r="B311" t="s">
-        <v>315</v>
+      <c r="A311" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A312" t="s">
-        <v>286</v>
-      </c>
-      <c r="B312" t="s">
-        <v>316</v>
+      <c r="A312" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>286</v>
-      </c>
-      <c r="B313" t="s">
-        <v>317</v>
+      <c r="A313" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
-        <v>286</v>
-      </c>
-      <c r="B314" t="s">
-        <v>318</v>
+      <c r="A314" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A315" t="s">
-        <v>286</v>
-      </c>
-      <c r="B315" t="s">
-        <v>319</v>
+      <c r="A315" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316" t="s">
-        <v>286</v>
-      </c>
-      <c r="B316" t="s">
-        <v>320</v>
+      <c r="A316" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317" t="s">
-        <v>286</v>
-      </c>
-      <c r="B317" t="s">
-        <v>321</v>
+      <c r="A317" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A318" t="s">
-        <v>286</v>
-      </c>
-      <c r="B318" t="s">
-        <v>322</v>
+      <c r="A318" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319" t="s">
-        <v>286</v>
-      </c>
-      <c r="B319" t="s">
-        <v>323</v>
+      <c r="A319" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320" t="s">
-        <v>286</v>
-      </c>
-      <c r="B320" t="s">
-        <v>324</v>
+      <c r="A320" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
-        <v>286</v>
-      </c>
-      <c r="B321" t="s">
-        <v>325</v>
+      <c r="A321" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322" t="s">
-        <v>286</v>
-      </c>
-      <c r="B322" t="s">
-        <v>326</v>
+      <c r="A322" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A323" t="s">
-        <v>286</v>
-      </c>
-      <c r="B323" t="s">
-        <v>327</v>
+      <c r="A323" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A324" t="s">
-        <v>286</v>
-      </c>
-      <c r="B324" t="s">
-        <v>328</v>
+      <c r="A324" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A325" t="s">
-        <v>286</v>
-      </c>
-      <c r="B325" t="s">
-        <v>329</v>
+      <c r="A325" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A326" t="s">
-        <v>286</v>
-      </c>
-      <c r="B326" t="s">
-        <v>330</v>
+      <c r="A326" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A327" t="s">
-        <v>286</v>
-      </c>
-      <c r="B327" t="s">
-        <v>331</v>
+      <c r="A327" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A328" t="s">
-        <v>286</v>
-      </c>
-      <c r="B328" t="s">
-        <v>332</v>
+      <c r="A328" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A329" t="s">
-        <v>286</v>
-      </c>
-      <c r="B329" t="s">
-        <v>333</v>
+      <c r="A329" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A330" t="s">
-        <v>286</v>
-      </c>
-      <c r="B330" t="s">
-        <v>334</v>
+      <c r="A330" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A331" t="s">
-        <v>286</v>
-      </c>
-      <c r="B331" t="s">
-        <v>335</v>
+      <c r="A331" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A332" t="s">
-        <v>286</v>
-      </c>
-      <c r="B332" t="s">
-        <v>336</v>
+      <c r="A332" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A333" t="s">
-        <v>286</v>
-      </c>
-      <c r="B333" t="s">
-        <v>337</v>
+      <c r="A333" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A334" t="s">
-        <v>286</v>
-      </c>
-      <c r="B334" t="s">
-        <v>338</v>
+      <c r="A334" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A335" t="s">
-        <v>286</v>
-      </c>
-      <c r="B335" t="s">
-        <v>339</v>
+      <c r="A335" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A336" t="s">
-        <v>286</v>
-      </c>
-      <c r="B336" t="s">
-        <v>340</v>
+      <c r="A336" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A337" t="s">
-        <v>286</v>
-      </c>
-      <c r="B337" t="s">
-        <v>341</v>
+      <c r="A337" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A338" t="s">
-        <v>286</v>
-      </c>
-      <c r="B338" t="s">
-        <v>342</v>
+      <c r="A338" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A339" t="s">
-        <v>286</v>
-      </c>
-      <c r="B339" t="s">
-        <v>343</v>
+      <c r="A339" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A340" t="s">
-        <v>286</v>
-      </c>
-      <c r="B340" t="s">
-        <v>344</v>
+      <c r="A340" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A341" t="s">
-        <v>286</v>
-      </c>
-      <c r="B341" t="s">
-        <v>345</v>
+      <c r="A341" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A342" t="s">
-        <v>286</v>
-      </c>
-      <c r="B342" t="s">
-        <v>346</v>
+      <c r="A342" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A343" t="s">
-        <v>286</v>
-      </c>
-      <c r="B343" t="s">
-        <v>347</v>
+      <c r="A343" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A344" t="s">
-        <v>286</v>
-      </c>
-      <c r="B344" t="s">
-        <v>348</v>
+      <c r="A344" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A345" t="s">
-        <v>286</v>
-      </c>
-      <c r="B345" t="s">
-        <v>349</v>
+      <c r="A345" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A346" t="s">
-        <v>286</v>
-      </c>
-      <c r="B346" t="s">
-        <v>350</v>
+      <c r="A346" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A347" t="s">
-        <v>286</v>
-      </c>
-      <c r="B347" t="s">
-        <v>351</v>
+      <c r="A347" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A348" t="s">
-        <v>286</v>
-      </c>
-      <c r="B348" t="s">
-        <v>352</v>
+      <c r="A348" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A349" t="s">
-        <v>286</v>
-      </c>
-      <c r="B349" t="s">
-        <v>353</v>
+      <c r="A349" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
-        <v>286</v>
-      </c>
-      <c r="B350" t="s">
-        <v>354</v>
+      <c r="A350" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
-        <v>286</v>
-      </c>
-      <c r="B351" t="s">
-        <v>355</v>
+      <c r="A351" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
-        <v>286</v>
-      </c>
-      <c r="B352" t="s">
-        <v>356</v>
+      <c r="A352" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
-        <v>286</v>
-      </c>
-      <c r="B353" t="s">
-        <v>357</v>
+      <c r="A353" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A354" t="s">
-        <v>286</v>
-      </c>
-      <c r="B354" t="s">
-        <v>358</v>
+      <c r="A354" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A355" t="s">
-        <v>286</v>
-      </c>
-      <c r="B355" t="s">
-        <v>359</v>
+      <c r="A355" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A356" t="s">
-        <v>286</v>
-      </c>
-      <c r="B356" t="s">
-        <v>360</v>
+      <c r="A356" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A357" t="s">
-        <v>286</v>
-      </c>
-      <c r="B357" t="s">
-        <v>361</v>
+      <c r="A357" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A358" t="s">
-        <v>286</v>
-      </c>
-      <c r="B358" t="s">
-        <v>362</v>
+      <c r="A358" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A359" t="s">
-        <v>286</v>
-      </c>
-      <c r="B359" t="s">
-        <v>363</v>
+      <c r="A359" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A360" t="s">
-        <v>286</v>
-      </c>
-      <c r="B360" t="s">
-        <v>364</v>
+      <c r="A360" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A361" t="s">
-        <v>286</v>
-      </c>
-      <c r="B361" t="s">
-        <v>365</v>
+      <c r="A361" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A362" t="s">
-        <v>286</v>
-      </c>
-      <c r="B362" t="s">
-        <v>366</v>
+      <c r="A362" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A363" t="s">
-        <v>286</v>
-      </c>
-      <c r="B363" t="s">
-        <v>367</v>
+      <c r="A363" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A364" t="s">
-        <v>286</v>
-      </c>
-      <c r="B364" t="s">
-        <v>368</v>
+      <c r="A364" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A365" t="s">
-        <v>286</v>
-      </c>
-      <c r="B365" t="s">
-        <v>369</v>
+      <c r="A365" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A366" t="s">
-        <v>286</v>
-      </c>
-      <c r="B366" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A367" t="s">
-        <v>286</v>
-      </c>
-      <c r="B367" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A368" t="s">
-        <v>286</v>
-      </c>
-      <c r="B368" t="s">
-        <v>372</v>
+      <c r="A366" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
